--- a/FullStack_Hours.xlsx
+++ b/FullStack_Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/fullStackOpen2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A668F-30CE-CF4E-B86B-7C84FF8C3815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF41452-549D-5642-858B-14E67289FD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{050F6B90-B9A5-FE41-953E-440A5BB9925A}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/FullStack_Hours.xlsx
+++ b/FullStack_Hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/fullStackOpen2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF41452-549D-5642-858B-14E67289FD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61EE428-07BA-8245-9FC0-28C94E970DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{050F6B90-B9A5-FE41-953E-440A5BB9925A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{050F6B90-B9A5-FE41-953E-440A5BB9925A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FullStack_Hours.xlsx
+++ b/FullStack_Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/fullStackOpen2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61EE428-07BA-8245-9FC0-28C94E970DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A46D0-DAD0-B94F-86FF-D50E918AF35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{050F6B90-B9A5-FE41-953E-440A5BB9925A}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
